--- a/bin/Debug/Resources/InvoiceDeftig.xlsx
+++ b/bin/Debug/Resources/InvoiceDeftig.xlsx
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -152,15 +152,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -202,28 +193,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -282,19 +251,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -316,82 +272,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -401,6 +327,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,13 +384,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19782</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>324582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,7 +413,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905377" y="123825"/>
+          <a:off x="4905377" y="85725"/>
           <a:ext cx="1225548" cy="848457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -757,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,21 +732,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -799,25 +757,25 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -845,7 +803,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -861,7 +819,7 @@
       <c r="I14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -869,412 +827,434 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="13"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="13"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="13"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="13"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="13"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="13"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="13"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="13"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="13"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="13"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="13"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="13"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="13"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="13"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="17"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="26" t="s">
+      <c r="H43" s="44"/>
+      <c r="I43" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G44" s="36">
+      <c r="G44" s="39">
         <v>0.21</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="31">
+      <c r="H44" s="40"/>
+      <c r="I44" s="27">
         <f>SUM(J15:J41)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13">
+      <c r="J44" s="9"/>
+      <c r="K44" s="10">
         <f>I44*G44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="30">
+      <c r="H48" s="20"/>
+      <c r="I48" s="26">
         <f>I44+K44</f>
         <v>0</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="17"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
+  <mergeCells count="64">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
@@ -1287,16 +1267,21 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.75" header="0" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
